--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cntn1</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cntn1</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.143837</v>
       </c>
       <c r="I2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>0.05836483538133334</v>
+        <v>0.1443192215334444</v>
       </c>
       <c r="R2">
-        <v>0.5252835184320001</v>
+        <v>1.298872993801</v>
       </c>
       <c r="S2">
-        <v>0.00397562394507615</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="T2">
-        <v>0.00397562394507615</v>
+        <v>0.01322668995706902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.143837</v>
       </c>
       <c r="I3">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
         <v>0.8934647334665554</v>
@@ -641,10 +641,10 @@
         <v>8.041182601198999</v>
       </c>
       <c r="S3">
-        <v>0.0608599298746034</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="T3">
-        <v>0.0608599298746034</v>
+        <v>0.08188501082233764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.143837</v>
       </c>
       <c r="I4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>2.547523365243444</v>
+        <v>3.304420940327778</v>
       </c>
       <c r="R4">
-        <v>22.927710287191</v>
+        <v>29.73978846295</v>
       </c>
       <c r="S4">
-        <v>0.1735290577850584</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="T4">
-        <v>0.1735290577850584</v>
+        <v>0.3028463623969415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.143837</v>
       </c>
       <c r="I5">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>1.333606065339778</v>
+        <v>0.4216063522162222</v>
       </c>
       <c r="R5">
-        <v>12.002454588058</v>
+        <v>3.794457169946</v>
       </c>
       <c r="S5">
-        <v>0.09084093482013497</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="T5">
-        <v>0.09084093482013499</v>
+        <v>0.03863973520258026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.143837</v>
       </c>
       <c r="I6">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>4.067174726993889</v>
+        <v>4.631001910696223</v>
       </c>
       <c r="R6">
-        <v>36.604572542945</v>
+        <v>41.679017196266</v>
       </c>
       <c r="S6">
-        <v>0.2770427968793162</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="T6">
-        <v>0.2770427968793162</v>
+        <v>0.4244259760587643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.143837</v>
       </c>
       <c r="I7">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>2.515962874449889</v>
+        <v>1.516399095307222</v>
       </c>
       <c r="R7">
-        <v>22.643665870049</v>
+        <v>13.647591857765</v>
       </c>
       <c r="S7">
-        <v>0.1713792591589263</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="T7">
-        <v>0.1713792591589263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.041132</v>
-      </c>
-      <c r="I8">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J8">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.217312</v>
-      </c>
-      <c r="N8">
-        <v>3.651936000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.00511250363603795</v>
-      </c>
-      <c r="P8">
-        <v>0.005112503636037949</v>
-      </c>
-      <c r="Q8">
-        <v>0.01669015906133334</v>
-      </c>
-      <c r="R8">
-        <v>0.150211431552</v>
-      </c>
-      <c r="S8">
-        <v>0.001136879690961799</v>
-      </c>
-      <c r="T8">
-        <v>0.001136879690961799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.041132</v>
-      </c>
-      <c r="I9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.63494233333333</v>
-      </c>
-      <c r="N9">
-        <v>55.904827</v>
-      </c>
-      <c r="O9">
-        <v>0.07826359260117714</v>
-      </c>
-      <c r="P9">
-        <v>0.07826359260117714</v>
-      </c>
-      <c r="Q9">
-        <v>0.2554974826848889</v>
-      </c>
-      <c r="R9">
-        <v>2.299477344164</v>
-      </c>
-      <c r="S9">
-        <v>0.01740366272657374</v>
-      </c>
-      <c r="T9">
-        <v>0.01740366272657374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.041132</v>
-      </c>
-      <c r="I10">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J10">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>53.13354766666667</v>
-      </c>
-      <c r="N10">
-        <v>159.400643</v>
-      </c>
-      <c r="O10">
-        <v>0.2231518753133371</v>
-      </c>
-      <c r="P10">
-        <v>0.2231518753133371</v>
-      </c>
-      <c r="Q10">
-        <v>0.7284963608751112</v>
-      </c>
-      <c r="R10">
-        <v>6.556467247876</v>
-      </c>
-      <c r="S10">
-        <v>0.04962281752827869</v>
-      </c>
-      <c r="T10">
-        <v>0.04962281752827869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.041132</v>
-      </c>
-      <c r="I11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>27.81494466666667</v>
-      </c>
-      <c r="N11">
-        <v>83.444834</v>
-      </c>
-      <c r="O11">
-        <v>0.1168180431512444</v>
-      </c>
-      <c r="P11">
-        <v>0.1168180431512444</v>
-      </c>
-      <c r="Q11">
-        <v>0.3813614346764445</v>
-      </c>
-      <c r="R11">
-        <v>3.432252912088</v>
-      </c>
-      <c r="S11">
-        <v>0.02597710833110946</v>
-      </c>
-      <c r="T11">
-        <v>0.02597710833110946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.041132</v>
-      </c>
-      <c r="I12">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J12">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>84.82882833333333</v>
-      </c>
-      <c r="N12">
-        <v>254.486485</v>
-      </c>
-      <c r="O12">
-        <v>0.3562666705782951</v>
-      </c>
-      <c r="P12">
-        <v>0.3562666705782951</v>
-      </c>
-      <c r="Q12">
-        <v>1.163059789002222</v>
-      </c>
-      <c r="R12">
-        <v>10.46753810102</v>
-      </c>
-      <c r="S12">
-        <v>0.07922387369897894</v>
-      </c>
-      <c r="T12">
-        <v>0.07922387369897894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.041132</v>
-      </c>
-      <c r="I13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>52.47529233333334</v>
-      </c>
-      <c r="N13">
-        <v>157.425877</v>
-      </c>
-      <c r="O13">
-        <v>0.2203873147199083</v>
-      </c>
-      <c r="P13">
-        <v>0.2203873147199082</v>
-      </c>
-      <c r="Q13">
-        <v>0.7194712414182223</v>
-      </c>
-      <c r="R13">
-        <v>6.475241172764001</v>
-      </c>
-      <c r="S13">
-        <v>0.04900805556098194</v>
-      </c>
-      <c r="T13">
-        <v>0.04900805556098193</v>
+        <v>0.1389762255623074</v>
       </c>
     </row>
   </sheetData>
